--- a/validations/flangesegments.PolynomialLFlangeSegment/Case_1_D7500_L_Tilt-0p00deg_ShapeFactor-1p00_Fv2800kN_ShellStiff-Simpl.xlsx
+++ b/validations/flangesegments.PolynomialLFlangeSegment/Case_1_D7500_L_Tilt-0p00deg_ShapeFactor-1p00_Fv2800kN_ShellStiff-Simpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialLFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735BEE92-5956-4A12-A564-A90BD7401654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF11B94F-BB86-4A35-A39F-C53527E74183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6750" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-8700" windowWidth="29040" windowHeight="18240" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="16" r:id="rId1"/>
@@ -158,6 +158,10 @@
     <definedName name="E_mod" localSheetId="1">PyFlange_Gap30deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="2">PyFlange_Gap60deg!$J$43</definedName>
     <definedName name="E_mod" localSheetId="3">PyFlange_Gap90deg!$J$43</definedName>
+    <definedName name="fatigue.damage" localSheetId="4">PyFlange_Gap120deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="1">PyFlange_Gap30deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="2">PyFlange_Gap60deg!$J$169</definedName>
+    <definedName name="fatigue.damage" localSheetId="3">PyFlange_Gap90deg!$J$169</definedName>
     <definedName name="ffff" localSheetId="5">#REF!</definedName>
     <definedName name="ffff">#REF!</definedName>
     <definedName name="fffff" localSheetId="5">#REF!</definedName>
@@ -251,6 +255,7 @@
     <definedName name="k_seg" localSheetId="1">PyFlange_Gap30deg!$J$142</definedName>
     <definedName name="k_seg" localSheetId="2">PyFlange_Gap60deg!$J$142</definedName>
     <definedName name="k_seg" localSheetId="3">PyFlange_Gap90deg!$J$142</definedName>
+    <definedName name="markov_matrix" localSheetId="5">SGRE!$U$16:$W$1216</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="4">PyFlange_Gap120deg!$I$120</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="1">PyFlange_Gap30deg!$I$120</definedName>
     <definedName name="Ms_coeff.comp.0" localSheetId="2">PyFlange_Gap60deg!$I$120</definedName>
@@ -331,10 +336,10 @@
     <definedName name="polynomial_initial_slope" localSheetId="1">PyFlange_Gap30deg!$J$152</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="2">PyFlange_Gap60deg!$J$152</definedName>
     <definedName name="polynomial_initial_slope" localSheetId="3">PyFlange_Gap90deg!$J$152</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">PyFlange_Gap120deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PyFlange_Gap30deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PyFlange_Gap60deg!$A$11:$K$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">PyFlange_Gap90deg!$A$11:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">PyFlange_Gap120deg!$A$11:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PyFlange_Gap30deg!$A$11:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PyFlange_Gap60deg!$A$11:$K$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PyFlange_Gap90deg!$A$11:$K$178</definedName>
     <definedName name="query">#N/A</definedName>
     <definedName name="Radius" localSheetId="4">PyFlange_Gap120deg!$J$41</definedName>
     <definedName name="Radius" localSheetId="1">PyFlange_Gap30deg!$J$41</definedName>
@@ -495,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="416">
   <si>
     <t>A</t>
   </si>
@@ -4473,6 +4478,15 @@
   <si>
     <t>Design value capped to 90% Fp,C*: Yes</t>
   </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Cumulated damage:</t>
+  </si>
+  <si>
+    <t>D =</t>
+  </si>
 </sst>
 </file>
 
@@ -5361,7 +5375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5855,6 +5869,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5882,17 +5905,11 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5905,7 +5922,14 @@
     <cellStyle name="Standard 2 3" xfId="6" xr:uid="{20FFBE33-F8FD-4507-8E20-ABED1704E16F}"/>
     <cellStyle name="Standard 2 4" xfId="7" xr:uid="{FDF43DE4-8234-4C19-B917-E06AD07C46BA}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -20525,9 +20549,9 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -20558,7 +20582,7 @@
       <c r="F2" s="155"/>
       <c r="G2" s="163">
         <f ca="1">MAX(MAX(G5:G114),ABS(MIN(G5:G114)))</f>
-        <v>2.5229147089622728E-3</v>
+        <v>3.4698947165702578E-3</v>
       </c>
       <c r="V2" s="158">
         <v>30</v>
@@ -22959,11 +22983,13 @@
         <f t="array" ref="E114">INDEX(SGRE!L136:O136,case_number)</f>
         <v>1.6829773098706071</v>
       </c>
-      <c r="F114" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="G114" s="109" t="s">
-        <v>85</v>
+      <c r="F114" s="109" cm="1">
+        <f t="array" aca="1" ref="F114" ca="1">INDIRECT(sheet_name&amp;"!fatigue.damage")</f>
+        <v>1.6771375557949795</v>
+      </c>
+      <c r="G114" s="118">
+        <f ca="1">(F114-E114)/E114</f>
+        <v>-3.4698947165702578E-3</v>
       </c>
       <c r="H114" t="s">
         <v>341</v>
@@ -22971,97 +22997,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2 G76:G80">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G16">
     <cfRule type="cellIs" dxfId="26" priority="19" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
+  <conditionalFormatting sqref="G26:G31">
     <cfRule type="cellIs" dxfId="25" priority="18" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G31">
+  <conditionalFormatting sqref="G38:G39">
     <cfRule type="cellIs" dxfId="24" priority="17" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G39">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="notBetween">
+  <conditionalFormatting sqref="G45:G50">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45:G50">
+  <conditionalFormatting sqref="G54:G57">
     <cfRule type="cellIs" dxfId="22" priority="5" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G57">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="notBetween">
+  <conditionalFormatting sqref="G59:G63">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G63">
+  <conditionalFormatting sqref="G65:G68">
     <cfRule type="cellIs" dxfId="20" priority="14" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G68">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="notBetween">
-      <formula>-0.001</formula>
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="notBetween">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="notBetween">
+      <formula>-0.001</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85:G87">
     <cfRule type="cellIs" dxfId="16" priority="10" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:G87">
+  <conditionalFormatting sqref="G91:G92">
     <cfRule type="cellIs" dxfId="15" priority="9" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G91:G92">
+  <conditionalFormatting sqref="G96">
     <cfRule type="cellIs" dxfId="14" priority="8" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G96">
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="13" priority="7" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="notBetween">
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-0.001</formula>
       <formula>0.001</formula>
     </cfRule>
@@ -23082,11 +23114,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -23131,32 +23163,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -23172,12 +23204,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -23185,12 +23217,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -23198,12 +23230,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -23211,12 +23243,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="183"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -23224,12 +23256,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="183"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="186"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -23277,112 +23309,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="186" t="s">
+      <c r="C13" s="177"/>
+      <c r="D13" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="186" t="s">
+      <c r="C14" s="177"/>
+      <c r="D14" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="186" t="s">
+      <c r="C15" s="177"/>
+      <c r="D15" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="186" t="str">
+      <c r="C16" s="177"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size</v>
       </c>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="184"/>
-      <c r="D17" s="187" t="s">
+      <c r="C17" s="177"/>
+      <c r="D17" s="175" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185">
+      <c r="C18" s="177"/>
+      <c r="D18" s="187">
         <v>45432</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -23570,16 +23602,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="177"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -27400,31 +27432,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>A.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>1.6771375557949795</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -27493,55 +27540,73 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -27552,21 +27617,31 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -27589,11 +27664,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -27638,32 +27713,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -27679,12 +27754,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -27692,12 +27767,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -27705,12 +27780,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -27718,12 +27793,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="183"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -27731,12 +27806,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="183"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="186"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -27784,117 +27859,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="186" t="str">
+      <c r="C13" s="177"/>
+      <c r="D13" s="176" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="186" t="str">
+      <c r="C14" s="177"/>
+      <c r="D14" s="176" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="186" t="str">
+      <c r="C15" s="177"/>
+      <c r="D15" s="176" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="186" t="str">
+      <c r="C16" s="177"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size</v>
       </c>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="184"/>
-      <c r="D17" s="186" t="str">
+      <c r="C17" s="177"/>
+      <c r="D17" s="176" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185">
+      <c r="C18" s="177"/>
+      <c r="D18" s="187">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -28082,16 +28157,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="177"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -31885,31 +31960,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>B.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>3.9970531061960668</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -31978,52 +32068,73 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -32037,21 +32148,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -32074,11 +32192,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -32123,32 +32241,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -32164,12 +32282,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -32177,12 +32295,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -32190,12 +32308,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -32203,12 +32321,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="183"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -32216,12 +32334,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="183"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="186"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -32269,117 +32387,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="186" t="str">
+      <c r="C13" s="177"/>
+      <c r="D13" s="176" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="186" t="str">
+      <c r="C14" s="177"/>
+      <c r="D14" s="176" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="186" t="str">
+      <c r="C15" s="177"/>
+      <c r="D15" s="176" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="186" t="str">
+      <c r="C16" s="177"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size</v>
       </c>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="184"/>
-      <c r="D17" s="186" t="str">
+      <c r="C17" s="177"/>
+      <c r="D17" s="176" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185">
+      <c r="C18" s="177"/>
+      <c r="D18" s="187">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -32567,16 +32685,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="177"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -36370,31 +36488,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>C.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>9.3182663702785025</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -36463,52 +36596,73 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -36522,21 +36676,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -36559,11 +36720,11 @@
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DJ180"/>
+  <dimension ref="A1:DJ182"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:XFD147"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -36608,32 +36769,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
       <c r="H4" s="47" t="s">
         <v>14</v>
       </c>
@@ -36649,12 +36810,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="186"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -36662,12 +36823,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="181"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -36675,12 +36836,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -36688,12 +36849,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="183"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -36701,12 +36862,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="183"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="186"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -36754,117 +36915,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="177" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="186" t="str">
+      <c r="C13" s="177"/>
+      <c r="D13" s="176" t="str">
         <f>PyFlange_Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="184"/>
-      <c r="D14" s="186" t="str">
+      <c r="C14" s="177"/>
+      <c r="D14" s="176" t="str">
         <f>PyFlange_Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
-      <c r="J14" s="186"/>
-      <c r="K14" s="186"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="186" t="str">
+      <c r="C15" s="177"/>
+      <c r="D15" s="176" t="str">
         <f>PyFlange_Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="184"/>
-      <c r="D16" s="186" t="str">
+      <c r="C16" s="177"/>
+      <c r="D16" s="176" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size</v>
       </c>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
-      <c r="K16" s="186"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="184"/>
-      <c r="D17" s="186" t="str">
+      <c r="C17" s="177"/>
+      <c r="D17" s="176" t="str">
         <f>PyFlange_Gap30deg!D17</f>
         <v>0.10</v>
       </c>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
-      <c r="K17" s="186"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185">
+      <c r="C18" s="177"/>
+      <c r="D18" s="187">
         <f>PyFlange_Gap30deg!D18</f>
         <v>45432</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="187"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -37052,16 +37213,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="177"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="179"/>
+      <c r="K28" s="180"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -40855,31 +41016,46 @@
       <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="9"/>
-      <c r="B168" s="58"/>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="125"/>
-      <c r="K168" s="60"/>
+      <c r="A168" s="75" t="str">
+        <f>$A$124&amp;"."&amp;7</f>
+        <v>D.4.7</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
       <c r="L168" s="3"/>
     </row>
     <row r="169" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="9"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="59"/>
-      <c r="J169" s="125"/>
-      <c r="K169" s="60"/>
+      <c r="A169" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J169" s="188">
+        <v>11.256673411729384</v>
+      </c>
+      <c r="K169" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:21" ht="20.100000000000001" customHeight="1">
@@ -40948,52 +41124,73 @@
       <c r="G174" s="58"/>
       <c r="H174" s="58"/>
       <c r="I174" s="59"/>
-      <c r="J174" s="63"/>
+      <c r="J174" s="125"/>
       <c r="K174" s="60"/>
       <c r="L174" s="3"/>
     </row>
     <row r="175" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="58"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="3"/>
     </row>
     <row r="176" spans="1:21" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
+      <c r="J176" s="63"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="3"/>
     </row>
-    <row r="180" spans="2:4" ht="13.2">
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
+    <row r="177" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2">
+      <c r="B182" s="69"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -41007,21 +41204,28 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K94">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K124">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
@@ -41045,9 +41249,9 @@
   </sheetPr>
   <dimension ref="A1:AM1048558"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="26" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="26" topLeftCell="A1193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16:W1216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -58807,20 +59011,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59077,14 +59281,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -59097,6 +59293,14 @@
     <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
     <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
